--- a/input/example_data.xlsx
+++ b/input/example_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huebo\Blindr\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544E2218-5F08-41B8-B12B-98EB0A06DF17}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDE67D2-48F5-4939-9BF1-E2EE9E773DD5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>RW #</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>High</t>
+  </si>
+  <si>
+    <t>PH22561</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -1466,6 +1469,24 @@
       <c r="M31" s="7"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>24.1</v>
+      </c>
+      <c r="E32">
+        <v>70123</v>
+      </c>
+      <c r="F32">
+        <v>2450.1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>

--- a/input/example_data.xlsx
+++ b/input/example_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huebo\Blindr\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDE67D2-48F5-4939-9BF1-E2EE9E773DD5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FA2773C-D7C0-49B1-BA34-BA655D048B97}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -191,7 +191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -236,11 +236,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -265,6 +276,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -549,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,25 +626,25 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4">
-        <v>23.6</v>
+        <v>25.8</v>
       </c>
       <c r="E2" s="5">
-        <v>94225</v>
+        <v>2836</v>
       </c>
       <c r="F2" s="5">
-        <v>3274.22157875929</v>
+        <v>1894.80026762533</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="8"/>
@@ -629,25 +655,25 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4">
-        <v>26</v>
+        <v>24.8</v>
       </c>
       <c r="E3" s="5">
-        <v>92374</v>
+        <v>165</v>
       </c>
       <c r="F3" s="5">
-        <v>2939.4176684111399</v>
+        <v>1925.6847999179299</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="8"/>
@@ -658,25 +684,25 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4">
-        <v>22.7</v>
+        <v>25.8</v>
       </c>
       <c r="E4" s="5">
-        <v>126191</v>
+        <v>20171</v>
       </c>
       <c r="F4" s="5">
-        <v>3142.20097604374</v>
+        <v>2093.4305839593899</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="8"/>
@@ -687,22 +713,22 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="E5" s="5">
-        <v>124759</v>
+        <v>61137</v>
       </c>
       <c r="F5" s="5">
-        <v>3358.9542591405898</v>
+        <v>2212.4443888686001</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>34</v>
@@ -715,23 +741,23 @@
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
+      <c r="A6" s="6">
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="E6" s="5">
-        <v>61137</v>
+        <v>70069</v>
       </c>
       <c r="F6" s="5">
-        <v>2212.4443888686001</v>
+        <v>2269.15994491621</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>34</v>
@@ -745,22 +771,22 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4">
-        <v>22.4</v>
+        <v>23.3</v>
       </c>
       <c r="E7" s="5">
-        <v>78840</v>
+        <v>22497</v>
       </c>
       <c r="F7" s="5">
-        <v>2385.05377981215</v>
+        <v>2273.7532528184602</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>34</v>
@@ -774,22 +800,22 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4">
-        <v>21.2</v>
+        <v>25.8</v>
       </c>
       <c r="E8" s="5">
-        <v>118226</v>
+        <v>42738</v>
       </c>
       <c r="F8" s="5">
-        <v>3225.9341387229001</v>
+        <v>2310.03750091758</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>34</v>
@@ -803,25 +829,25 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4">
-        <v>24.3</v>
+        <v>21.5</v>
       </c>
       <c r="E9" s="5">
-        <v>48088</v>
+        <v>74160</v>
       </c>
       <c r="F9" s="5">
-        <v>2407.1913128984502</v>
+        <v>2362.3692648566998</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8"/>
@@ -832,22 +858,22 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D10" s="4">
-        <v>23.3</v>
+        <v>22.4</v>
       </c>
       <c r="E10" s="5">
-        <v>115007</v>
+        <v>78840</v>
       </c>
       <c r="F10" s="5">
-        <v>3793.6567657894502</v>
+        <v>2385.05377981215</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>34</v>
@@ -861,22 +887,22 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="E11" s="5">
-        <v>125230</v>
+        <v>51799</v>
       </c>
       <c r="F11" s="5">
-        <v>3764.5792473213901</v>
+        <v>2386.0758070082002</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>34</v>
@@ -890,22 +916,22 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4">
-        <v>27</v>
+        <v>24.3</v>
       </c>
       <c r="E12" s="5">
-        <v>129857</v>
+        <v>43991</v>
       </c>
       <c r="F12" s="5">
-        <v>4738.6009728399204</v>
+        <v>2403.2502523396201</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>34</v>
@@ -919,22 +945,22 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4">
-        <v>23</v>
+        <v>24.3</v>
       </c>
       <c r="E13" s="5">
-        <v>97949</v>
+        <v>48088</v>
       </c>
       <c r="F13" s="5">
-        <v>3460.3536313118102</v>
+        <v>2407.1913128984502</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>34</v>
@@ -947,52 +973,52 @@
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3">
-        <v>23</v>
-      </c>
-      <c r="D14" s="4">
-        <v>24.8</v>
-      </c>
-      <c r="E14" s="5">
-        <v>165</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1925.6847999179299</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="A14" s="6">
+        <v>31</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="13">
+        <v>41</v>
+      </c>
+      <c r="D14" s="13">
+        <v>24.1</v>
+      </c>
+      <c r="E14" s="13">
+        <v>70123</v>
+      </c>
+      <c r="F14" s="13">
+        <v>2450.1</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D15" s="4">
         <v>24.6</v>
       </c>
       <c r="E15" s="5">
-        <v>89011</v>
+        <v>56642</v>
       </c>
       <c r="F15" s="5">
-        <v>2773.30744659122</v>
+        <v>2519.79108533607</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>34</v>
@@ -1006,25 +1032,25 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D16" s="4">
-        <v>25.8</v>
+        <v>26.3</v>
       </c>
       <c r="E16" s="5">
-        <v>2836</v>
+        <v>56067</v>
       </c>
       <c r="F16" s="5">
-        <v>1894.80026762533</v>
+        <v>2726.83913372811</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="8"/>
@@ -1035,25 +1061,25 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="4">
-        <v>25.8</v>
+        <v>24.6</v>
       </c>
       <c r="E17" s="5">
-        <v>20171</v>
+        <v>89011</v>
       </c>
       <c r="F17" s="5">
-        <v>2093.4305839593899</v>
+        <v>2773.30744659122</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
@@ -1064,22 +1090,22 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D18" s="4">
-        <v>23.7</v>
+        <v>26</v>
       </c>
       <c r="E18" s="5">
-        <v>107362</v>
+        <v>92374</v>
       </c>
       <c r="F18" s="5">
-        <v>3029.8140643964198</v>
+        <v>2939.4176684111399</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>34</v>
@@ -1122,22 +1148,22 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="4">
-        <v>26.3</v>
+        <v>23.7</v>
       </c>
       <c r="E20" s="5">
-        <v>56067</v>
+        <v>107362</v>
       </c>
       <c r="F20" s="5">
-        <v>2726.83913372811</v>
+        <v>3029.8140643964198</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>34</v>
@@ -1151,22 +1177,22 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D21" s="4">
-        <v>24.6</v>
+        <v>22.7</v>
       </c>
       <c r="E21" s="5">
-        <v>136903</v>
+        <v>126191</v>
       </c>
       <c r="F21" s="5">
-        <v>3519.8071192144798</v>
+        <v>3142.20097604374</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>34</v>
@@ -1180,22 +1206,22 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C22" s="3">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D22" s="4">
-        <v>23.3</v>
+        <v>21.2</v>
       </c>
       <c r="E22" s="5">
-        <v>22497</v>
+        <v>118226</v>
       </c>
       <c r="F22" s="5">
-        <v>2273.7532528184602</v>
+        <v>3225.9341387229001</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>34</v>
@@ -1209,22 +1235,22 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D23" s="4">
-        <v>24.2</v>
+        <v>22.7</v>
       </c>
       <c r="E23" s="5">
-        <v>122745</v>
+        <v>117055</v>
       </c>
       <c r="F23" s="5">
-        <v>3492.9967446263699</v>
+        <v>3266.22404685931</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>34</v>
@@ -1238,22 +1264,22 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D24" s="4">
-        <v>25.3</v>
+        <v>23.6</v>
       </c>
       <c r="E24" s="5">
-        <v>51799</v>
+        <v>94225</v>
       </c>
       <c r="F24" s="5">
-        <v>2386.0758070082002</v>
+        <v>3274.22157875929</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>34</v>
@@ -1267,22 +1293,22 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D25" s="4">
-        <v>22.7</v>
+        <v>25.7</v>
       </c>
       <c r="E25" s="5">
-        <v>117055</v>
+        <v>98804</v>
       </c>
       <c r="F25" s="5">
-        <v>3266.22404685931</v>
+        <v>3301.4728088432298</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>34</v>
@@ -1296,22 +1322,22 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D26" s="4">
-        <v>25.8</v>
+        <v>24.8</v>
       </c>
       <c r="E26" s="5">
-        <v>42738</v>
+        <v>124759</v>
       </c>
       <c r="F26" s="5">
-        <v>2310.03750091758</v>
+        <v>3358.9542591405898</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>34</v>
@@ -1325,22 +1351,22 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C27" s="3">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D27" s="4">
-        <v>21.5</v>
+        <v>23</v>
       </c>
       <c r="E27" s="5">
-        <v>74160</v>
+        <v>97949</v>
       </c>
       <c r="F27" s="5">
-        <v>2362.3692648566998</v>
+        <v>3460.3536313118102</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>34</v>
@@ -1354,22 +1380,22 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C28" s="3">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D28" s="4">
-        <v>25.7</v>
+        <v>24.2</v>
       </c>
       <c r="E28" s="5">
-        <v>98804</v>
+        <v>122745</v>
       </c>
       <c r="F28" s="5">
-        <v>3301.4728088432298</v>
+        <v>3492.9967446263699</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>34</v>
@@ -1383,25 +1409,25 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="3">
         <v>30</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="4">
+        <v>24.6</v>
+      </c>
+      <c r="E29" s="5">
+        <v>136903</v>
+      </c>
+      <c r="F29" s="5">
+        <v>3519.8071192144798</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="D29" s="4">
-        <v>24.3</v>
-      </c>
-      <c r="E29" s="5">
-        <v>43991</v>
-      </c>
-      <c r="F29" s="5">
-        <v>2403.2502523396201</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="8"/>
@@ -1412,25 +1438,25 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C30" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D30" s="4">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="E30" s="5">
-        <v>56642</v>
+        <v>125230</v>
       </c>
       <c r="F30" s="5">
-        <v>2519.79108533607</v>
+        <v>3764.5792473213901</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="8"/>
@@ -1440,23 +1466,23 @@
       <c r="M30" s="7"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
-        <v>30</v>
+      <c r="A31" s="3">
+        <v>9</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C31" s="3">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D31" s="4">
-        <v>24.4</v>
+        <v>23.3</v>
       </c>
       <c r="E31" s="5">
-        <v>70069</v>
+        <v>115007</v>
       </c>
       <c r="F31" s="5">
-        <v>2269.15994491621</v>
+        <v>3793.6567657894502</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>39</v>
@@ -1469,27 +1495,31 @@
       <c r="M31" s="7"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32">
-        <v>31</v>
-      </c>
-      <c r="D32">
-        <v>24.1</v>
-      </c>
-      <c r="E32">
-        <v>70123</v>
-      </c>
-      <c r="F32">
-        <v>2450.1</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="A32" s="12">
+        <v>11</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="14">
+        <v>21</v>
+      </c>
+      <c r="D32" s="15">
+        <v>27</v>
+      </c>
+      <c r="E32" s="8">
+        <v>129857</v>
+      </c>
+      <c r="F32" s="8">
+        <v>4738.6009728399204</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
@@ -1508,6 +1538,11 @@
       <c r="M34" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S1" xr:uid="{70349AF2-AD78-4274-87B9-ACEA62EDBDCA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S32">
+      <sortCondition ref="F1"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N31">
     <sortCondition ref="B2:B31"/>
   </sortState>
